--- a/Formulasation(shacl)/core/Templates/SHACL-dataset-open-protected.xlsx
+++ b/Formulasation(shacl)/core/Templates/SHACL-dataset-open-protected.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GDI/shacl_template_GDI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GitHub/gdi-metadata/Formulasation(shacl)/core/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{1B1DBC4C-3AF0-9940-9D98-49079FB71514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF94DB2A-59A7-485D-BBDF-36FC7F0756FD}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{1B1DBC4C-3AF0-9940-9D98-49079FB71514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{525A7343-192D-4A40-AD32-765E4089B346}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="178">
   <si>
     <t>PREFIX</t>
   </si>
@@ -526,15 +526,6 @@
     <t>http://data.health-ri.nl/GDI/</t>
   </si>
   <si>
-    <t>Dataset class - sensitive</t>
-  </si>
-  <si>
-    <t>Excel template for Dataset class - sensitive</t>
-  </si>
-  <si>
-    <t>This is an excel template for Dataset class - sensitive for GDI.</t>
-  </si>
-  <si>
     <t>http://data.health-ri.nl/GDI/DatasetOpenProtectedShape</t>
   </si>
   <si>
@@ -542,6 +533,48 @@
   </si>
   <si>
     <t>gdi:DatasetOpenProtectedShape</t>
+  </si>
+  <si>
+    <t>dcat:contactPoint</t>
+  </si>
+  <si>
+    <t>contact point</t>
+  </si>
+  <si>
+    <t>Contact information that can be used for sending comments about the Dataset.</t>
+  </si>
+  <si>
+    <t>dct:accessRights</t>
+  </si>
+  <si>
+    <t>access rights</t>
+  </si>
+  <si>
+    <t>Information that indicates whether the Dataset is publicly accessible, has access restrictions or is not public. This property must be filled with a value from a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>dash:EnumSelectEditor</t>
+  </si>
+  <si>
+    <t>( eu:PUBLIC eu:RESTRICTED )</t>
+  </si>
+  <si>
+    <t>Dataset class - open protected</t>
+  </si>
+  <si>
+    <t>Excel template for Dataset class - open protected</t>
+  </si>
+  <si>
+    <t>This is an excel template for Dataset class - open protected for GDI.</t>
+  </si>
+  <si>
+    <t>http://data.health-ri.nl/GDI/ProvenanceStatementShape</t>
+  </si>
+  <si>
+    <t>dash:DetailsViewer</t>
+  </si>
+  <si>
+    <t>dash:BlankNodeEditor</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2169,7 @@
     <sheetView zoomScale="95" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B13" sqref="B13"/>
-      <selection pane="topRight" activeCell="C27" sqref="C27"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2194,7 @@
         <v>51</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -2179,7 +2212,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -2188,7 +2221,7 @@
         <v>55</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -2197,7 +2230,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -2327,10 +2360,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>87</v>
@@ -2370,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="I11" sqref="I11:X11"/>
@@ -2409,7 +2442,7 @@
         <v>51</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C1" s="4"/>
       <c r="O1" s="4"/>
@@ -2610,26 +2643,33 @@
     </row>
     <row r="9" spans="1:24" s="52" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="str">
-        <f t="shared" ref="A9:A14" si="0">CONCATENATE(B9,"#",SUBSTITUTE(D9," ","-"))</f>
-        <v>gdi:DatasetOpenProtectedShape#health-theme</v>
+        <f t="shared" ref="A9:A16" si="0">CONCATENATE(B9,"#",SUBSTITUTE(D9," ","-"))</f>
+        <v>gdi:DatasetOpenProtectedShape#access-rights</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="55"/>
+      <c r="G9" s="51">
+        <v>1</v>
+      </c>
+      <c r="H9" s="55">
+        <v>1</v>
+      </c>
       <c r="I9" s="56" t="s">
         <v>137</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>171</v>
       </c>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
@@ -2639,197 +2679,311 @@
         <v>138</v>
       </c>
       <c r="X9" s="56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="59" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>gdi:DatasetOpenProtectedShape#health-theme</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="X10" s="66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="59" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="str">
+    <row r="11" spans="1:24" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="str">
         <f t="shared" si="0"/>
         <v>gdi:DatasetOpenProtectedShape#provenance</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="61" t="s">
+      <c r="B11" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D11" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E11" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="X10" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="str">
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="X11" s="52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="str">
         <f t="shared" si="0"/>
         <v>gdi:DatasetOpenProtectedShape#publisher</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="49" t="s">
+      <c r="B12" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D12" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E12" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="51">
+      <c r="F12" s="54"/>
+      <c r="G12" s="51">
         <v>1</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H12" s="55">
         <v>1</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I12" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="X11" s="52" t="s">
+      <c r="J12" s="52"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" s="66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="59" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="str">
+    <row r="13" spans="1:24" s="52" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="str">
         <f t="shared" si="0"/>
         <v>gdi:DatasetOpenProtectedShape#purpose</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="61" t="s">
+      <c r="B13" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D13" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E13" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66" t="s">
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="X12" s="66" t="s">
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" s="56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="str">
+    <row r="14" spans="1:24" s="59" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>gdi:DatasetOpenProtectedShape#sample</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="49" t="s">
+      <c r="B14" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D14" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E14" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="56" t="s">
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="X13" s="56" t="s">
+      <c r="X14" s="66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="str">
+    <row r="15" spans="1:24" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>gdi:DatasetOpenProtectedShape#type</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B15" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65">
+        <v>1</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" s="56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>gdi:DatasetOpenProtectedShape#contact-point</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65">
+      <c r="F16" s="54"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="55">
         <v>1</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I16" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="X14" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="G15" s="51"/>
-      <c r="I15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-    </row>
-    <row r="16" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
     </row>
     <row r="17" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="47"/>
@@ -2839,15 +2993,19 @@
     </row>
     <row r="19" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="47"/>
+    </row>
+    <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="K11" r:id="rId2" display="http://data.health-ri.nl/core/p2/AgentShape" xr:uid="{46674905-A6DD-4EF9-AC67-B74822E5C0F8}"/>
+    <hyperlink ref="K12" r:id="rId2" display="http://data.health-ri.nl/core/p2/AgentShape" xr:uid="{46674905-A6DD-4EF9-AC67-B74822E5C0F8}"/>
     <hyperlink ref="B1" r:id="rId3" xr:uid="{109AA093-1049-45A9-9098-6558135DAAC2}"/>
+    <hyperlink ref="K16" r:id="rId4" display="http://data.health-ri.nl/GDI/KindShape" xr:uid="{FC21DFC3-E42C-4EA4-AFDF-5C2C132306EB}"/>
   </hyperlinks>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -2856,6 +3014,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+    <Categorie xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+    <Persoon xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Persoon>
+    <Opmerkingen xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B1A1CF98C819F4881BB4349588D0C85" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6c59cfd598d1d7de5b45c1822abcd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfc87205-1831-4b6c-a7b4-76d40079a43e" xmlns:ns3="221af607-abea-4d5e-830c-567dcc03c0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67714481eaab3d0eef8b708c465ce66d" ns2:_="" ns3:_="">
     <xsd:import namespace="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
@@ -3143,27 +3322,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-    <Categorie xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-    <Persoon xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Persoon>
-    <Opmerkingen xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3174,6 +3332,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D188C3D5-44E3-4A45-B4C8-A1EF171C14AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF8A8EB-FDDC-4F03-BB17-434FEEA9C2D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3192,17 +3361,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D188C3D5-44E3-4A45-B4C8-A1EF171C14AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714965F3-B175-40D4-A6BA-6E5740C5D9B2}">
   <ds:schemaRefs>
